--- a/Sprint 1 Documentation/Sprint1Backlog.xlsx
+++ b/Sprint 1 Documentation/Sprint1Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni - gitfolder\Agile-Software-Development\Sprint 1 Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E18E9B-8AB7-4721-851B-86476B422834}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2088FCA7-51EA-4E8F-9F24-23CA7F8568A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:K65"/>
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
